--- a/a.xlsx
+++ b/a.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhymacbookair/IdeaProjects/excel-merge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{367B3EFC-359D-2E4A-9CEA-F5C1B6774171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1023DE58-6A47-CD43-87CB-90B735EE8F71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{C1F9C4CC-FAEA-1944-B7E0-3B04CC4B5F34}"/>
   </bookViews>
@@ -33,11 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
-  <si>
-    <t>title</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>course</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -146,12 +142,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -467,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57E320D8-A5D9-5E43-BD40-02BF6DB7CC66}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="251" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -479,43 +472,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
+      <c r="D2">
+        <v>90</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
@@ -523,16 +524,16 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
       <c r="C4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
@@ -540,42 +541,22 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="E5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>70</v>
-      </c>
-      <c r="E6" t="s">
-        <v>16</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
